--- a/realme/May/All Details/07.05.2021/realme Bank Statement May-2021.xlsx
+++ b/realme/May/All Details/07.05.2021/realme Bank Statement May-2021.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\May\All Details\07.05.2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Balance Transfer" sheetId="14" r:id="rId3"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +32,7 @@
     <author>8801715116767</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="0" shapeId="0">
+    <comment ref="N12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -2276,6 +2271,24 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2303,12 +2316,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2319,18 +2326,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2499,7 +2494,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2766,7 +2761,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4083,73 +4078,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
-      <c r="R1" s="240"/>
-      <c r="S1" s="240"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+      <c r="R1" s="246"/>
+      <c r="S1" s="246"/>
     </row>
     <row r="2" spans="1:26" s="138" customFormat="1" ht="18">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="241"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="241"/>
-      <c r="Q2" s="241"/>
-      <c r="R2" s="241"/>
-      <c r="S2" s="241"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
     </row>
     <row r="3" spans="1:26" s="139" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="248" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
-      <c r="Q3" s="243"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="244"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="250"/>
       <c r="U3" s="59"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4158,58 +4153,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="141" customFormat="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="249" t="s">
+      <c r="C4" s="240" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="249" t="s">
+      <c r="D4" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="249" t="s">
+      <c r="E4" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="249" t="s">
+      <c r="F4" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="249" t="s">
+      <c r="G4" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="249" t="s">
+      <c r="H4" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="249" t="s">
+      <c r="I4" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="249" t="s">
+      <c r="J4" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="249" t="s">
+      <c r="K4" s="240" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="249" t="s">
+      <c r="L4" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="249" t="s">
+      <c r="M4" s="240" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="249" t="s">
+      <c r="N4" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="255" t="s">
+      <c r="O4" s="242" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="257" t="s">
+      <c r="P4" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="253" t="s">
+      <c r="Q4" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="251" t="s">
+      <c r="R4" s="255" t="s">
         <v>48</v>
       </c>
       <c r="S4" s="140" t="s">
@@ -4222,24 +4217,24 @@
       <c r="Y4" s="143"/>
     </row>
     <row r="5" spans="1:26" s="141" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="246"/>
-      <c r="B5" s="248"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="254"/>
-      <c r="R5" s="252"/>
+      <c r="A5" s="252"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="241"/>
+      <c r="M5" s="241"/>
+      <c r="N5" s="241"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="245"/>
+      <c r="Q5" s="258"/>
+      <c r="R5" s="256"/>
       <c r="S5" s="145" t="s">
         <v>49</v>
       </c>
@@ -7264,11 +7259,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7285,6 +7275,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17404,7 +17399,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17521,7 +17516,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="43">
-        <v>8212140</v>
+        <v>8051800</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="34"/>
@@ -17553,7 +17548,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="42">
-        <v>85530</v>
+        <v>89750</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="232" t="s">
@@ -17595,7 +17590,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="43">
-        <v>39789</v>
+        <v>204349</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="34"/>
@@ -17735,7 +17730,7 @@
       </c>
       <c r="B11" s="213">
         <f>B6-B8-B9-B10</f>
-        <v>81330</v>
+        <v>85550</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="232" t="s">
@@ -17858,7 +17853,7 @@
       </c>
       <c r="B14" s="42">
         <f>B5+B6-B9+B12-B13-B10</f>
-        <v>10081330</v>
+        <v>10085550</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="232" t="s">
@@ -17866,7 +17861,7 @@
       </c>
       <c r="E14" s="43">
         <f>E5+E6+E7+E10+E11+E12+E13</f>
-        <v>10081330</v>
+        <v>10085550</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="189">
